--- a/data.xlsx
+++ b/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\Project\STEM ITA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\Project\STEM ITA\deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C516386-02BE-44A9-9DD4-AAB0600B07F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE8A640-593A-4C22-B8D3-3039C4156041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{BA75D349-407D-4F0B-8BC4-71B4BC33D962}"/>
+    <workbookView xWindow="4320" yWindow="0" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{BA75D349-407D-4F0B-8BC4-71B4BC33D962}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="56">
   <si>
     <t>Province</t>
   </si>
@@ -204,6 +204,9 @@
   </si>
   <si>
     <t>Baby Boomer &amp; Pre-Boomer</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -1213,8 +1216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17345664-D281-47E5-801B-748D5433ABC5}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1224,615 +1227,542 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="B2">
+        <v>39.71</v>
+      </c>
       <c r="C2" s="1">
-        <v>40.984027470785499</v>
+        <v>60.29</v>
       </c>
       <c r="D2" s="1">
-        <v>59.015972529214501</v>
-      </c>
-      <c r="E2" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="B3">
+        <v>48.07</v>
+      </c>
       <c r="C3" s="1">
-        <v>43.971224314977952</v>
+        <v>51.93</v>
       </c>
       <c r="D3" s="1">
-        <v>56.028775685022048</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="B4">
+        <v>42.92</v>
+      </c>
       <c r="C4" s="1">
-        <v>38.860547168719997</v>
+        <v>57.08</v>
       </c>
       <c r="D4" s="1">
-        <v>61.139452831280003</v>
-      </c>
-      <c r="E4" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="B5">
+        <v>44.91</v>
+      </c>
       <c r="C5" s="1">
-        <v>44.894053776923734</v>
+        <v>55.09</v>
       </c>
       <c r="D5" s="1">
-        <v>55.105946223076266</v>
-      </c>
-      <c r="E5" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
         <v>8</v>
       </c>
+      <c r="B6">
+        <v>42.15</v>
+      </c>
       <c r="C6" s="1">
-        <v>44.871794871794876</v>
+        <v>57.85</v>
       </c>
       <c r="D6" s="1">
-        <v>55.128205128205131</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
         <v>9</v>
       </c>
+      <c r="B7">
+        <v>42.33</v>
+      </c>
       <c r="C7" s="1">
-        <v>44.232024450420084</v>
+        <v>57.67</v>
       </c>
       <c r="D7" s="1">
-        <v>55.767975549579916</v>
-      </c>
-      <c r="E7" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
         <v>10</v>
       </c>
+      <c r="B8">
+        <v>46.01</v>
+      </c>
       <c r="C8" s="1">
-        <v>43.65408983940624</v>
+        <v>53.99</v>
       </c>
       <c r="D8" s="1">
-        <v>56.34591016059376</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
         <v>11</v>
       </c>
+      <c r="B9">
+        <v>40.53</v>
+      </c>
       <c r="C9" s="1">
-        <v>41.783507356065257</v>
+        <v>59.47</v>
       </c>
       <c r="D9" s="1">
-        <v>58.216492643934735</v>
-      </c>
-      <c r="E9" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
         <v>12</v>
       </c>
+      <c r="B10">
+        <v>48.83</v>
+      </c>
       <c r="C10" s="1">
-        <v>47.240839920027348</v>
+        <v>51.17</v>
       </c>
       <c r="D10" s="1">
-        <v>52.759160079972659</v>
-      </c>
-      <c r="E10" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
         <v>13</v>
       </c>
+      <c r="B11">
+        <v>56.08</v>
+      </c>
       <c r="C11" s="1">
-        <v>47.013820335636723</v>
+        <v>43.92</v>
       </c>
       <c r="D11" s="1">
-        <v>52.986179664363277</v>
-      </c>
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
         <v>14</v>
       </c>
+      <c r="B12">
+        <v>60.31</v>
+      </c>
       <c r="C12" s="1">
-        <v>48.495960779257558</v>
+        <v>39.69</v>
       </c>
       <c r="D12" s="1">
-        <v>51.504039220742449</v>
-      </c>
-      <c r="E12" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
         <v>15</v>
       </c>
+      <c r="B13">
+        <v>56.48</v>
+      </c>
       <c r="C13" s="1">
-        <v>49.411014447369368</v>
+        <v>43.52</v>
       </c>
       <c r="D13" s="1">
-        <v>50.588985552630639</v>
-      </c>
-      <c r="E13" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
         <v>16</v>
       </c>
+      <c r="B14">
+        <v>49.65</v>
+      </c>
       <c r="C14" s="1">
-        <v>44.493077898267074</v>
+        <v>50.35</v>
       </c>
       <c r="D14" s="1">
-        <v>55.506922101732926</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
         <v>17</v>
       </c>
+      <c r="B15">
+        <v>56.23</v>
+      </c>
       <c r="C15" s="1">
-        <v>44.858893432053264</v>
+        <v>43.77</v>
       </c>
       <c r="D15" s="1">
-        <v>55.141106567946743</v>
-      </c>
-      <c r="E15" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
         <v>18</v>
       </c>
+      <c r="B16">
+        <v>50.19</v>
+      </c>
       <c r="C16" s="1">
-        <v>45.971715354992263</v>
+        <v>49.81</v>
       </c>
       <c r="D16" s="1">
-        <v>54.028284645007737</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
         <v>19</v>
       </c>
+      <c r="B17">
+        <v>56.19</v>
+      </c>
       <c r="C17" s="1">
-        <v>48.367360319499767</v>
+        <v>43.81</v>
       </c>
       <c r="D17" s="1">
-        <v>51.632639680500226</v>
-      </c>
-      <c r="E17" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E17" s="1"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
         <v>20</v>
       </c>
+      <c r="B18">
+        <v>49.79</v>
+      </c>
       <c r="C18" s="1">
-        <v>50.65501569601274</v>
+        <v>50.21</v>
       </c>
       <c r="D18" s="1">
-        <v>49.344984303987253</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
         <v>21</v>
       </c>
+      <c r="B19">
+        <v>48.47</v>
+      </c>
       <c r="C19" s="1">
-        <v>48.860736654895994</v>
+        <v>51.53</v>
       </c>
       <c r="D19" s="1">
-        <v>51.139263345104006</v>
-      </c>
-      <c r="E19" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E19" s="1"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
         <v>22</v>
       </c>
+      <c r="B20">
+        <v>44.59</v>
+      </c>
       <c r="C20" s="1">
-        <v>45.107838612806781</v>
+        <v>55.41</v>
       </c>
       <c r="D20" s="1">
-        <v>54.892161387193219</v>
-      </c>
-      <c r="E20" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
         <v>23</v>
       </c>
+      <c r="B21">
+        <v>49.64</v>
+      </c>
       <c r="C21" s="1">
-        <v>49.085481588846328</v>
+        <v>50.36</v>
       </c>
       <c r="D21" s="1">
-        <v>50.914518411153672</v>
-      </c>
-      <c r="E21" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
         <v>24</v>
       </c>
+      <c r="B22">
+        <v>51.06</v>
+      </c>
       <c r="C22" s="1">
-        <v>45.882554265576452</v>
+        <v>48.94</v>
       </c>
       <c r="D22" s="1">
-        <v>54.117445734423541</v>
-      </c>
-      <c r="E22" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
         <v>25</v>
       </c>
+      <c r="B23">
+        <v>53.28</v>
+      </c>
       <c r="C23" s="1">
-        <v>47.015481718467406</v>
+        <v>46.72</v>
       </c>
       <c r="D23" s="1">
-        <v>52.984518281532587</v>
-      </c>
-      <c r="E23" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
         <v>26</v>
       </c>
+      <c r="B24">
+        <v>53.98</v>
+      </c>
       <c r="C24" s="1">
-        <v>46.206620089336845</v>
+        <v>46.02</v>
       </c>
       <c r="D24" s="1">
-        <v>53.793379910663155</v>
-      </c>
-      <c r="E24" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
         <v>27</v>
       </c>
+      <c r="B25">
+        <v>50.22</v>
+      </c>
       <c r="C25" s="1">
-        <v>49.620096373166568</v>
+        <v>49.78</v>
       </c>
       <c r="D25" s="1">
-        <v>50.379903626833432</v>
-      </c>
-      <c r="E25" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
         <v>28</v>
       </c>
+      <c r="B26">
+        <v>42.88</v>
+      </c>
       <c r="C26" s="1">
-        <v>43.293943414272931</v>
+        <v>57.12</v>
       </c>
       <c r="D26" s="1">
-        <v>56.706056585727069</v>
-      </c>
-      <c r="E26" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
         <v>29</v>
       </c>
+      <c r="B27">
+        <v>41.56</v>
+      </c>
       <c r="C27" s="1">
-        <v>43.736099765319182</v>
+        <v>58.44</v>
       </c>
       <c r="D27" s="1">
-        <v>56.263900234680818</v>
-      </c>
-      <c r="E27" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="B28">
+        <v>42.42</v>
+      </c>
       <c r="C28" s="1">
-        <v>42.982933805339094</v>
+        <v>57.58</v>
       </c>
       <c r="D28" s="1">
-        <v>57.017066194660906</v>
-      </c>
-      <c r="E28" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
         <v>31</v>
       </c>
+      <c r="B29">
+        <v>42.74</v>
+      </c>
       <c r="C29" s="1">
-        <v>45.451903717490119</v>
+        <v>57.26</v>
       </c>
       <c r="D29" s="1">
-        <v>54.548096282509874</v>
-      </c>
-      <c r="E29" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
         <v>32</v>
       </c>
+      <c r="B30">
+        <v>43.62</v>
+      </c>
       <c r="C30" s="1">
-        <v>36.886104950157204</v>
+        <v>56.38</v>
       </c>
       <c r="D30" s="1">
-        <v>63.113895049842796</v>
-      </c>
-      <c r="E30" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
         <v>33</v>
       </c>
+      <c r="B31">
+        <v>43.98</v>
+      </c>
       <c r="C31" s="1">
-        <v>45.020335065416276</v>
+        <v>56.02</v>
       </c>
       <c r="D31" s="1">
-        <v>54.979664934583724</v>
-      </c>
-      <c r="E31" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
         <v>34</v>
       </c>
+      <c r="B32">
+        <v>38.17</v>
+      </c>
       <c r="C32" s="1">
-        <v>42.813326853501806</v>
+        <v>61.83</v>
       </c>
       <c r="D32" s="1">
-        <v>57.186673146498194</v>
-      </c>
-      <c r="E32" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" t="s">
         <v>35</v>
       </c>
+      <c r="B33">
+        <v>42.52</v>
+      </c>
       <c r="C33" s="1">
-        <v>46.662610976977625</v>
+        <v>57.48</v>
       </c>
       <c r="D33" s="1">
-        <v>53.337389023022375</v>
-      </c>
-      <c r="E33" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" t="s">
         <v>36</v>
       </c>
+      <c r="B34">
+        <v>53.88</v>
+      </c>
       <c r="C34" s="1">
-        <v>53.734263116020031</v>
+        <v>46.12</v>
       </c>
       <c r="D34" s="1">
-        <v>46.265736883979969</v>
-      </c>
-      <c r="E34" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
         <v>37</v>
       </c>
+      <c r="B35">
+        <v>52.66</v>
+      </c>
       <c r="C35" s="1">
-        <v>53.588345200222186</v>
+        <v>47.34</v>
       </c>
       <c r="D35" s="1">
-        <v>46.411654799777814</v>
-      </c>
-      <c r="E35" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" t="s">
-        <v>38</v>
+      <c r="B36">
+        <v>49.98</v>
       </c>
       <c r="C36" s="1">
-        <v>46.069945198125701</v>
+        <v>50.02</v>
       </c>
       <c r="D36" s="1">
-        <v>53.930054801874292</v>
-      </c>
-      <c r="E36" s="1">
-        <v>100</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2582,7 +2512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EEEC3E-AECA-4938-9067-2713A189E246}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\Project\STEM ITA\deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE8A640-593A-4C22-B8D3-3039C4156041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FDBA35-1384-4F92-B537-E40F508228EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4320" yWindow="0" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{BA75D349-407D-4F0B-8BC4-71B4BC33D962}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{BA75D349-407D-4F0B-8BC4-71B4BC33D962}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="1" r:id="rId1"/>
     <sheet name="sex" sheetId="2" r:id="rId2"/>
     <sheet name="edunocup" sheetId="3" r:id="rId3"/>
     <sheet name="gen" sheetId="4" r:id="rId4"/>
+    <sheet name="age" sheetId="5" r:id="rId5"/>
+    <sheet name="province_dist" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="54">
   <si>
     <t>Province</t>
   </si>
@@ -50,9 +52,6 @@
     <t>Disabled</t>
   </si>
   <si>
-    <t xml:space="preserve">Total </t>
-  </si>
-  <si>
     <t>Aceh</t>
   </si>
   <si>
@@ -158,24 +157,6 @@
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
-    <t>Sumatera</t>
-  </si>
-  <si>
-    <t>Jawa-Bali</t>
-  </si>
-  <si>
-    <t>Nusa Tenggara, Maluku, Papua</t>
-  </si>
-  <si>
-    <t>Kalimantan</t>
-  </si>
-  <si>
-    <t>Sulawesi</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -207,6 +188,21 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>15-24 yo</t>
+  </si>
+  <si>
+    <t>25-44 yo</t>
+  </si>
+  <si>
+    <t>45-59 yo</t>
+  </si>
+  <si>
+    <t>60+ yo</t>
   </si>
 </sst>
 </file>
@@ -580,631 +576,522 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3176ECE0-70B5-43C2-BD35-2975FB63D36C}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A1:A36"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection sqref="A1:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
+        <v>96.14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.86</v>
+      </c>
+      <c r="D2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>95.712378375240576</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.2876216247594297</v>
-      </c>
-      <c r="E2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1">
+        <v>97.18</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2.82</v>
+      </c>
+      <c r="D3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1">
-        <v>96.443754692837274</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3.5562453071627238</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1">
+        <v>96.81</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="D4" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1">
-        <v>96.250216900919668</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3.7497830990803402</v>
-      </c>
-      <c r="E4" s="1">
-        <v>100.00000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1">
+        <v>98.11</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1.89</v>
+      </c>
+      <c r="D5" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
-        <v>96.83999467437161</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3.160005325628394</v>
-      </c>
-      <c r="E5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1">
+        <v>97.05</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.95</v>
+      </c>
+      <c r="D6" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="1">
-        <v>96.5712878266704</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3.4287121733295964</v>
-      </c>
-      <c r="E6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1">
+        <v>97.36</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="D7" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="1">
-        <v>96.64843066775029</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.3515693322497189</v>
-      </c>
-      <c r="E7" s="1">
-        <v>100.00000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1">
+        <v>99.23</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1">
-        <v>97.661175618712662</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.3388243812873362</v>
-      </c>
-      <c r="E8" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1">
+        <v>97.9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>2.1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="1">
-        <v>96.96005072085697</v>
-      </c>
-      <c r="D9" s="1">
-        <v>3.0399492791430291</v>
-      </c>
-      <c r="E9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1">
+        <v>96.8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="1">
-        <v>95.09908528689671</v>
-      </c>
-      <c r="D10" s="1">
-        <v>4.9009147131032913</v>
-      </c>
-      <c r="E10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1">
+        <v>99.07</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="D11" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="1">
-        <v>98.439889282465202</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.5601107175347928</v>
-      </c>
-      <c r="E11" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1">
+        <v>95.19</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="D12" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="1">
-        <v>94.827598480971403</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5.1724015190285941</v>
-      </c>
-      <c r="E12" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1">
+        <v>96.66</v>
+      </c>
+      <c r="C13" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="D13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1">
-        <v>96.895430273257205</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3.1045697267428016</v>
-      </c>
-      <c r="E13" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1">
+        <v>97.13</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2.87</v>
+      </c>
+      <c r="D14" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="1">
-        <v>96.513089111011226</v>
-      </c>
-      <c r="D14" s="1">
-        <v>3.4869108889887821</v>
-      </c>
-      <c r="E14" s="1">
-        <v>100.00000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1">
+        <v>96.17</v>
+      </c>
+      <c r="C15" s="1">
+        <v>3.83</v>
+      </c>
+      <c r="D15" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="1">
-        <v>96.746198473129525</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3.2538015268704665</v>
-      </c>
-      <c r="E15" s="1">
-        <v>99.999999999999986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1">
+        <v>96.27</v>
+      </c>
+      <c r="C16" s="1">
+        <v>3.73</v>
+      </c>
+      <c r="D16" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="1">
-        <v>96.137752461872708</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3.8622475381272907</v>
-      </c>
-      <c r="E16" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1">
+        <v>95.37</v>
+      </c>
+      <c r="C17" s="1">
+        <v>4.63</v>
+      </c>
+      <c r="D17" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="1">
-        <v>95.987618463718675</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4.0123815362813291</v>
-      </c>
-      <c r="E17" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1">
+        <v>95.38</v>
+      </c>
+      <c r="C18" s="1">
+        <v>4.62</v>
+      </c>
+      <c r="D18" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1">
-        <v>95.507426322447643</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4.4925736775523593</v>
-      </c>
-      <c r="E18" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1">
+        <v>96.21</v>
+      </c>
+      <c r="C19" s="1">
+        <v>3.79</v>
+      </c>
+      <c r="D19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="1">
-        <v>96.544320437147206</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3.4556795628527981</v>
-      </c>
-      <c r="E19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1">
+        <v>97.28</v>
+      </c>
+      <c r="C20" s="1">
+        <v>2.72</v>
+      </c>
+      <c r="D20" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="1">
-        <v>96.468151466172074</v>
-      </c>
-      <c r="D20" s="1">
-        <v>3.5318485338279264</v>
-      </c>
-      <c r="E20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1">
+        <v>97.83</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2.17</v>
+      </c>
+      <c r="D21" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="1">
-        <v>97.131633134324929</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2.8683668656750756</v>
-      </c>
-      <c r="E21" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1">
+        <v>97.06</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.94</v>
+      </c>
+      <c r="D22" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="1">
-        <v>95.578003925196668</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4.4219960748033387</v>
-      </c>
-      <c r="E22" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1">
+        <v>96.5</v>
+      </c>
+      <c r="C23" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="1">
-        <v>95.324728292664986</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4.6752717073350114</v>
-      </c>
-      <c r="E23" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1">
+        <v>97.87</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2.13</v>
+      </c>
+      <c r="D24" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="1">
-        <v>97.125472454472572</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2.8745275455274308</v>
-      </c>
-      <c r="E24" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>43</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1">
+        <v>99.18</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="1">
-        <v>97.56348091418559</v>
-      </c>
-      <c r="D25" s="1">
-        <v>2.4365190858144139</v>
-      </c>
-      <c r="E25" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1">
+        <v>97.5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="D26" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="1">
-        <v>96.719367763149194</v>
-      </c>
-      <c r="D26" s="1">
-        <v>3.280632236850805</v>
-      </c>
-      <c r="E26" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1">
+        <v>95.59</v>
+      </c>
+      <c r="C27" s="1">
+        <v>4.41</v>
+      </c>
+      <c r="D27" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="1">
-        <v>95.315827497792498</v>
-      </c>
-      <c r="D27" s="1">
-        <v>4.6841725022075105</v>
-      </c>
-      <c r="E27" s="1">
-        <v>100.00000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>44</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1">
+        <v>97.84</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2.16</v>
+      </c>
+      <c r="D28" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="1">
-        <v>96.469341632719434</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3.5306583672805725</v>
-      </c>
-      <c r="E28" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1">
+        <v>97.38</v>
+      </c>
+      <c r="C29" s="1">
+        <v>2.62</v>
+      </c>
+      <c r="D29" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>31</v>
       </c>
-      <c r="C29" s="1">
-        <v>97.499187036870467</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2.5008129631295275</v>
-      </c>
-      <c r="E29" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1">
+        <v>95.02</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="D30" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>32</v>
       </c>
-      <c r="C30" s="1">
-        <v>93.065880231056084</v>
-      </c>
-      <c r="D30" s="1">
-        <v>6.9341197689439182</v>
-      </c>
-      <c r="E30" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1">
+        <v>96.82</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="D31" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="1">
-        <v>95.819181127647752</v>
-      </c>
-      <c r="D31" s="1">
-        <v>4.1808188723522512</v>
-      </c>
-      <c r="E31" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1">
+        <v>95.4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D32" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="1">
-        <v>94.87121334845294</v>
-      </c>
-      <c r="D32" s="1">
-        <v>5.1287866515470597</v>
-      </c>
-      <c r="E32" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1">
+        <v>97.94</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="D33" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>35</v>
       </c>
-      <c r="C33" s="1">
-        <v>96.043801448641659</v>
-      </c>
-      <c r="D33" s="1">
-        <v>3.9561985513583391</v>
-      </c>
-      <c r="E33" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>42</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1">
+        <v>96.13</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3.87</v>
+      </c>
+      <c r="D34" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>36</v>
       </c>
-      <c r="C34" s="1">
-        <v>94.240651471895916</v>
-      </c>
-      <c r="D34" s="1">
-        <v>5.7593485281040859</v>
-      </c>
-      <c r="E34" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>42</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1">
+        <v>98.06</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1.94</v>
+      </c>
+      <c r="D35" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>37</v>
       </c>
-      <c r="C35" s="1">
-        <v>95.88446195020957</v>
-      </c>
-      <c r="D35" s="1">
-        <v>4.1155380497904357</v>
-      </c>
-      <c r="E35" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="s">
-        <v>38</v>
+      <c r="B36" s="1">
+        <v>96.78</v>
       </c>
       <c r="C36" s="1">
-        <v>96.336342198738507</v>
+        <v>3.22</v>
       </c>
       <c r="D36" s="1">
-        <v>3.6636578012615049</v>
-      </c>
-      <c r="E36" s="1">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1216,7 +1103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17345664-D281-47E5-801B-748D5433ABC5}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1230,18 +1117,18 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>39.71</v>
@@ -1256,7 +1143,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>48.07</v>
@@ -1271,7 +1158,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>42.92</v>
@@ -1286,7 +1173,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>44.91</v>
@@ -1301,7 +1188,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>42.15</v>
@@ -1316,7 +1203,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>42.33</v>
@@ -1331,7 +1218,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>46.01</v>
@@ -1346,7 +1233,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>40.53</v>
@@ -1361,7 +1248,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>48.83</v>
@@ -1376,7 +1263,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>56.08</v>
@@ -1391,7 +1278,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>60.31</v>
@@ -1406,7 +1293,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>56.48</v>
@@ -1421,7 +1308,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>49.65</v>
@@ -1436,7 +1323,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>56.23</v>
@@ -1451,7 +1338,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>50.19</v>
@@ -1466,7 +1353,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>56.19</v>
@@ -1481,7 +1368,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>49.79</v>
@@ -1496,7 +1383,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>48.47</v>
@@ -1511,7 +1398,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>44.59</v>
@@ -1526,7 +1413,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>49.64</v>
@@ -1541,7 +1428,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>51.06</v>
@@ -1556,7 +1443,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23">
         <v>53.28</v>
@@ -1571,7 +1458,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>53.98</v>
@@ -1586,7 +1473,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25">
         <v>50.22</v>
@@ -1601,7 +1488,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26">
         <v>42.88</v>
@@ -1616,7 +1503,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>41.56</v>
@@ -1631,7 +1518,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28">
         <v>42.42</v>
@@ -1646,7 +1533,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>42.74</v>
@@ -1661,7 +1548,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>43.62</v>
@@ -1676,7 +1563,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31">
         <v>43.98</v>
@@ -1691,7 +1578,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32">
         <v>38.17</v>
@@ -1706,7 +1593,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33">
         <v>42.52</v>
@@ -1721,7 +1608,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>53.88</v>
@@ -1736,7 +1623,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35">
         <v>52.66</v>
@@ -1751,7 +1638,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36">
         <v>49.98</v>
@@ -1773,8 +1660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6265AEAD-A740-4998-AF71-079B79772C7A}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1788,36 +1675,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>15.504337704381355</v>
+        <v>11.05</v>
       </c>
       <c r="C2" s="1">
-        <v>64.336022043176982</v>
+        <v>26.45</v>
       </c>
       <c r="D2" s="1">
-        <v>2.1054234945346741</v>
+        <v>2.66</v>
       </c>
       <c r="E2" s="1">
-        <v>18.054216757906989</v>
+        <v>59.84</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -1825,19 +1712,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>15.122446864427483</v>
+        <v>10.37</v>
       </c>
       <c r="C3" s="1">
-        <v>69.17387232656445</v>
+        <v>25.7</v>
       </c>
       <c r="D3" s="1">
-        <v>1.3232071602543698</v>
+        <v>1.98</v>
       </c>
       <c r="E3" s="1">
-        <v>14.3804736487537</v>
+        <v>61.96</v>
       </c>
       <c r="F3" s="1">
         <v>100</v>
@@ -1845,19 +1732,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>14.830231635315668</v>
+        <v>9.94</v>
       </c>
       <c r="C4" s="1">
-        <v>67.469647717115521</v>
+        <v>22.18</v>
       </c>
       <c r="D4" s="1">
-        <v>1.7097083214756681</v>
+        <v>2.63</v>
       </c>
       <c r="E4" s="1">
-        <v>15.990412326093143</v>
+        <v>65.25</v>
       </c>
       <c r="F4" s="1">
         <v>100</v>
@@ -1865,59 +1752,59 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>16.798962364411995</v>
+        <v>9.3699999999999992</v>
       </c>
       <c r="C5" s="1">
-        <v>68.775304613772519</v>
+        <v>22.14</v>
       </c>
       <c r="D5" s="1">
-        <v>0.85000074542786497</v>
+        <v>2.57</v>
       </c>
       <c r="E5" s="1">
-        <v>13.575732276387614</v>
+        <v>65.92</v>
       </c>
       <c r="F5" s="1">
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>13.052673291208484</v>
+        <v>9.01</v>
       </c>
       <c r="C6" s="1">
-        <v>68.044984860036095</v>
+        <v>23.33</v>
       </c>
       <c r="D6" s="1">
-        <v>1.2913118574129827</v>
+        <v>1.47</v>
       </c>
       <c r="E6" s="1">
-        <v>17.611029991342438</v>
+        <v>66.19</v>
       </c>
       <c r="F6" s="1">
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>17.147097080771104</v>
+        <v>10.34</v>
       </c>
       <c r="C7" s="1">
-        <v>69.430450348140909</v>
+        <v>21.87</v>
       </c>
       <c r="D7" s="1">
-        <v>2.0064916498536154</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="E7" s="1">
-        <v>11.41596092123438</v>
+        <v>62.86</v>
       </c>
       <c r="F7" s="1">
         <v>100</v>
@@ -1925,39 +1812,39 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>16.089292965515785</v>
+        <v>9.51</v>
       </c>
       <c r="C8" s="1">
-        <v>67.362081604024823</v>
+        <v>19.41</v>
       </c>
       <c r="D8" s="1">
-        <v>2.9832878922915471</v>
+        <v>3.51</v>
       </c>
       <c r="E8" s="1">
-        <v>13.565337538167837</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="F8" s="1">
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>15.873293116034521</v>
+        <v>10.36</v>
       </c>
       <c r="C9" s="1">
-        <v>66.887906595547435</v>
+        <v>20.27</v>
       </c>
       <c r="D9" s="1">
-        <v>1.0867179907473341</v>
+        <v>2.71</v>
       </c>
       <c r="E9" s="1">
-        <v>16.152082297670709</v>
+        <v>66.67</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
@@ -1965,19 +1852,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>18.601977700008138</v>
+        <v>11.1</v>
       </c>
       <c r="C10" s="1">
-        <v>61.646455603483354</v>
+        <v>20.61</v>
       </c>
       <c r="D10" s="1">
-        <v>3.3093920403678685</v>
+        <v>4.92</v>
       </c>
       <c r="E10" s="1">
-        <v>16.442174656140637</v>
+        <v>63.37</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -1985,19 +1872,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>27.90525643304208</v>
+        <v>16.55</v>
       </c>
       <c r="C11" s="1">
-        <v>55.58330891571358</v>
+        <v>20.7</v>
       </c>
       <c r="D11" s="1">
-        <v>4.0690162020914293</v>
+        <v>6.95</v>
       </c>
       <c r="E11" s="1">
-        <v>12.442418449152909</v>
+        <v>55.8</v>
       </c>
       <c r="F11" s="1">
         <v>100</v>
@@ -2005,19 +1892,19 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>26.663372248264405</v>
+        <v>11.93</v>
       </c>
       <c r="C12" s="1">
-        <v>59.750025959769772</v>
+        <v>19.66</v>
       </c>
       <c r="D12" s="1">
-        <v>1.9232480863941137</v>
+        <v>4.9400000000000004</v>
       </c>
       <c r="E12" s="1">
-        <v>11.663353705571708</v>
+        <v>63.47</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
@@ -2025,19 +1912,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>25.451583992407013</v>
+        <v>14.56</v>
       </c>
       <c r="C13" s="1">
-        <v>58.660714158089057</v>
+        <v>21.71</v>
       </c>
       <c r="D13" s="1">
-        <v>2.2411244823776109</v>
+        <v>4.67</v>
       </c>
       <c r="E13" s="1">
-        <v>13.646577367126314</v>
+        <v>59.06</v>
       </c>
       <c r="F13" s="1">
         <v>100</v>
@@ -2045,19 +1932,19 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>17.714468808049297</v>
+        <v>11.04</v>
       </c>
       <c r="C14" s="1">
-        <v>65.45673431078518</v>
+        <v>20.83</v>
       </c>
       <c r="D14" s="1">
-        <v>1.7009763872333015</v>
+        <v>3.19</v>
       </c>
       <c r="E14" s="1">
-        <v>15.127820493932223</v>
+        <v>64.94</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -2065,19 +1952,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>18.875874422646692</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>63.618950616814764</v>
+        <v>22.64</v>
       </c>
       <c r="D15" s="1">
-        <v>1.9273402603062157</v>
+        <v>3.83</v>
       </c>
       <c r="E15" s="1">
-        <v>15.577834700232335</v>
+        <v>63.33</v>
       </c>
       <c r="F15" s="1">
         <v>100</v>
@@ -2085,19 +1972,19 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>17.680817741247257</v>
+        <v>10.59</v>
       </c>
       <c r="C16" s="1">
-        <v>63.827115172059237</v>
+        <v>21.5</v>
       </c>
       <c r="D16" s="1">
-        <v>1.3329852974713368</v>
+        <v>2.64</v>
       </c>
       <c r="E16" s="1">
-        <v>17.159081789222171</v>
+        <v>65.260000000000005</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
@@ -2105,19 +1992,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>26.523018669865788</v>
+        <v>10.56</v>
       </c>
       <c r="C17" s="1">
-        <v>60.261597703488675</v>
+        <v>21.83</v>
       </c>
       <c r="D17" s="1">
-        <v>2.3776497177561886</v>
+        <v>6.74</v>
       </c>
       <c r="E17" s="1">
-        <v>10.837733908889341</v>
+        <v>60.87</v>
       </c>
       <c r="F17" s="1">
         <v>100</v>
@@ -2125,19 +2012,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>17.450239206189831</v>
+        <v>10.83</v>
       </c>
       <c r="C18" s="1">
-        <v>58.778065593965422</v>
+        <v>15.42</v>
       </c>
       <c r="D18" s="1">
-        <v>2.3051545347924773</v>
+        <v>2.1</v>
       </c>
       <c r="E18" s="1">
-        <v>21.466540665052271</v>
+        <v>71.650000000000006</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
@@ -2145,39 +2032,39 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>16.031778756946206</v>
+        <v>10.23</v>
       </c>
       <c r="C19" s="1">
-        <v>65.61105064559591</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="D19" s="1">
-        <v>2.1988138104302215</v>
+        <v>2.41</v>
       </c>
       <c r="E19" s="1">
-        <v>16.158356787027671</v>
+        <v>67.2</v>
       </c>
       <c r="F19" s="1">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>14.943674377636643</v>
+        <v>11.55</v>
       </c>
       <c r="C20" s="1">
-        <v>68.739806389892152</v>
+        <v>24.06</v>
       </c>
       <c r="D20" s="1">
-        <v>1.8311622085206991</v>
+        <v>1.94</v>
       </c>
       <c r="E20" s="1">
-        <v>14.485357023950506</v>
+        <v>62.45</v>
       </c>
       <c r="F20" s="1">
         <v>100</v>
@@ -2185,19 +2072,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>17.338393643061266</v>
+        <v>11.48</v>
       </c>
       <c r="C21" s="1">
-        <v>68.454053271918298</v>
+        <v>25.52</v>
       </c>
       <c r="D21" s="1">
-        <v>2.2069019570014352</v>
+        <v>3.04</v>
       </c>
       <c r="E21" s="1">
-        <v>12.000651128019003</v>
+        <v>59.96</v>
       </c>
       <c r="F21" s="1">
         <v>100</v>
@@ -2205,19 +2092,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>17.331234250489416</v>
+        <v>9.7799999999999994</v>
       </c>
       <c r="C22" s="1">
-        <v>64.180309853251615</v>
+        <v>19.32</v>
       </c>
       <c r="D22" s="1">
-        <v>2.4519400330196635</v>
+        <v>3.56</v>
       </c>
       <c r="E22" s="1">
-        <v>16.036515863239302</v>
+        <v>67.34</v>
       </c>
       <c r="F22" s="1">
         <v>100</v>
@@ -2225,19 +2112,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>17.697384916681912</v>
+        <v>10.220000000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>63.441690892950319</v>
+        <v>22.16</v>
       </c>
       <c r="D23" s="1">
-        <v>3.3391611945760227</v>
+        <v>4.68</v>
       </c>
       <c r="E23" s="1">
-        <v>15.521762995791741</v>
+        <v>62.94</v>
       </c>
       <c r="F23" s="1">
         <v>100</v>
@@ -2245,19 +2132,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>21.465811108883095</v>
+        <v>14.06</v>
       </c>
       <c r="C24" s="1">
-        <v>62.734321356739642</v>
+        <v>24.04</v>
       </c>
       <c r="D24" s="1">
-        <v>1.9326005189249624</v>
+        <v>2.92</v>
       </c>
       <c r="E24" s="1">
-        <v>13.867267015452297</v>
+        <v>58.98</v>
       </c>
       <c r="F24" s="1">
         <v>100</v>
@@ -2265,39 +2152,39 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
-        <v>15.800029713266975</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>67.242608824840289</v>
+        <v>24.02</v>
       </c>
       <c r="D25" s="1">
-        <v>1.8065666320011886</v>
+        <v>2.78</v>
       </c>
       <c r="E25" s="1">
-        <v>15.150794829891549</v>
+        <v>63.16</v>
       </c>
       <c r="F25" s="1">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
-        <v>17.693928015386025</v>
+        <v>12.65</v>
       </c>
       <c r="C26" s="1">
-        <v>62.609213297921052</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>2.1815184540708858</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="E26" s="1">
-        <v>17.515340232622034</v>
+        <v>64.849999999999994</v>
       </c>
       <c r="F26" s="1">
         <v>100</v>
@@ -2305,39 +2192,39 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>16.81542338801394</v>
+        <v>10.67</v>
       </c>
       <c r="C27" s="1">
-        <v>66.4892503935002</v>
+        <v>23.36</v>
       </c>
       <c r="D27" s="1">
-        <v>2.0775900501314704</v>
+        <v>2.56</v>
       </c>
       <c r="E27" s="1">
-        <v>14.617736168354394</v>
+        <v>63.4</v>
       </c>
       <c r="F27" s="1">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>16.792140809286987</v>
+        <v>11.54</v>
       </c>
       <c r="C28" s="1">
-        <v>65.945933485156033</v>
+        <v>22.33</v>
       </c>
       <c r="D28" s="1">
-        <v>2.2524681299722036</v>
+        <v>3.09</v>
       </c>
       <c r="E28" s="1">
-        <v>15.009457575584776</v>
+        <v>63.05</v>
       </c>
       <c r="F28" s="1">
         <v>100</v>
@@ -2345,19 +2232,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
-        <v>17.637468237800796</v>
+        <v>11.8</v>
       </c>
       <c r="C29" s="1">
-        <v>70.17340541163091</v>
+        <v>25.43</v>
       </c>
       <c r="D29" s="1">
-        <v>1.6527140934186564</v>
+        <v>2.79</v>
       </c>
       <c r="E29" s="1">
-        <v>10.536412257149644</v>
+        <v>59.98</v>
       </c>
       <c r="F29" s="1">
         <v>100</v>
@@ -2365,19 +2252,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>17.401850796230491</v>
+        <v>10.34</v>
       </c>
       <c r="C30" s="1">
-        <v>67.572255036324606</v>
+        <v>23.33</v>
       </c>
       <c r="D30" s="1">
-        <v>1.6785727280445355</v>
+        <v>3.04</v>
       </c>
       <c r="E30" s="1">
-        <v>13.347321439400369</v>
+        <v>63.29</v>
       </c>
       <c r="F30" s="1">
         <v>100</v>
@@ -2385,19 +2272,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>14.61191411145459</v>
+        <v>10.84</v>
       </c>
       <c r="C31" s="1">
-        <v>66.61124571810511</v>
+        <v>19.89</v>
       </c>
       <c r="D31" s="1">
-        <v>1.5080624947781769</v>
+        <v>1.82</v>
       </c>
       <c r="E31" s="1">
-        <v>17.268777675662129</v>
+        <v>67.44</v>
       </c>
       <c r="F31" s="1">
         <v>100</v>
@@ -2405,19 +2292,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>15.389001162882593</v>
+        <v>10.38</v>
       </c>
       <c r="C32" s="1">
-        <v>64.622401860612158</v>
+        <v>24.64</v>
       </c>
       <c r="D32" s="1">
-        <v>2.1163334198909376</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E32" s="1">
-        <v>17.872263556614318</v>
+        <v>62.78</v>
       </c>
       <c r="F32" s="1">
         <v>100</v>
@@ -2425,19 +2312,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>15.036127687109065</v>
+        <v>10.56</v>
       </c>
       <c r="C33" s="1">
-        <v>63.225249838234234</v>
+        <v>26.84</v>
       </c>
       <c r="D33" s="1">
-        <v>3.4195484937810052</v>
+        <v>3.5</v>
       </c>
       <c r="E33" s="1">
-        <v>18.319073980875693</v>
+        <v>59.11</v>
       </c>
       <c r="F33" s="1">
         <v>100</v>
@@ -2445,19 +2332,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
-        <v>16.634743854469349</v>
+        <v>10.65</v>
       </c>
       <c r="C34" s="1">
-        <v>67.010810154257257</v>
+        <v>24.88</v>
       </c>
       <c r="D34" s="1">
-        <v>2.9197694082912107</v>
+        <v>2.6</v>
       </c>
       <c r="E34" s="1">
-        <v>13.434676582982183</v>
+        <v>61.87</v>
       </c>
       <c r="F34" s="1">
         <v>100</v>
@@ -2465,39 +2352,39 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1">
-        <v>19.575904015997335</v>
+        <v>12.09</v>
       </c>
       <c r="C35" s="1">
-        <v>64.154411764705884</v>
+        <v>21.81</v>
       </c>
       <c r="D35" s="1">
-        <v>1.5945259123479421</v>
+        <v>3.04</v>
       </c>
       <c r="E35" s="1">
-        <v>14.675158306948841</v>
+        <v>63.06</v>
       </c>
       <c r="F35" s="1">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B36" s="1">
-        <v>19.290503148935823</v>
+        <v>11.46</v>
       </c>
       <c r="C36" s="1">
-        <v>63.965395745744239</v>
+        <v>21.94</v>
       </c>
       <c r="D36" s="1">
-        <v>1.9104968821662434</v>
+        <v>3.44</v>
       </c>
       <c r="E36" s="1">
-        <v>14.833604223153705</v>
+        <v>63.16</v>
       </c>
       <c r="F36" s="1">
         <v>100</v>
@@ -2513,7 +2400,7 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection sqref="A1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2526,36 +2413,36 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>18.270171067261451</v>
+        <v>19.440000000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>54.828821104993594</v>
+        <v>60.42</v>
       </c>
       <c r="D2" s="1">
-        <v>20.632783649702834</v>
+        <v>16.54</v>
       </c>
       <c r="E2" s="1">
-        <v>6.2682241780421251</v>
+        <v>3.6</v>
       </c>
       <c r="F2" s="1">
         <v>100</v>
@@ -2563,19 +2450,19 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>20.009553118511548</v>
+        <v>20.58</v>
       </c>
       <c r="C3" s="1">
-        <v>52.671700560849132</v>
+        <v>59.09</v>
       </c>
       <c r="D3" s="1">
-        <v>19.465183994472586</v>
+        <v>15.45</v>
       </c>
       <c r="E3" s="1">
-        <v>7.8535623261667329</v>
+        <v>4.88</v>
       </c>
       <c r="F3" s="1">
         <v>100</v>
@@ -2583,19 +2470,19 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
-        <v>19.380916575086278</v>
+        <v>20.55</v>
       </c>
       <c r="C4" s="1">
-        <v>53.196059151290797</v>
+        <v>57.08</v>
       </c>
       <c r="D4" s="1">
-        <v>20.372876780997551</v>
+        <v>18.329999999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>7.0501474926253689</v>
+        <v>4.04</v>
       </c>
       <c r="F4" s="1">
         <v>100</v>
@@ -2603,79 +2490,79 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>21.264161104233278</v>
+        <v>22.43</v>
       </c>
       <c r="C5" s="1">
-        <v>51.192205505666436</v>
+        <v>55.42</v>
       </c>
       <c r="D5" s="1">
-        <v>21.255020100272841</v>
+        <v>19.11</v>
       </c>
       <c r="E5" s="1">
-        <v>6.2886132898274534</v>
+        <v>3.04</v>
       </c>
       <c r="F5" s="1">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
-        <v>21.642843189713016</v>
+        <v>25.8</v>
       </c>
       <c r="C6" s="1">
-        <v>51.676561265829235</v>
+        <v>51.03</v>
       </c>
       <c r="D6" s="1">
-        <v>21.119660950730843</v>
+        <v>19.84</v>
       </c>
       <c r="E6" s="1">
-        <v>5.560934593726909</v>
+        <v>3.33</v>
       </c>
       <c r="F6" s="1">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>21.345209459447176</v>
+        <v>27.46</v>
       </c>
       <c r="C7" s="1">
-        <v>51.377517904187378</v>
+        <v>51.74</v>
       </c>
       <c r="D7" s="1">
-        <v>18.932348625754759</v>
+        <v>16.05</v>
       </c>
       <c r="E7" s="1">
-        <v>8.344924010610697</v>
+        <v>4.75</v>
       </c>
       <c r="F7" s="1">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>20.296361426465644</v>
+        <v>19.989999999999998</v>
       </c>
       <c r="C8" s="1">
-        <v>51.994621014249141</v>
+        <v>59.99</v>
       </c>
       <c r="D8" s="1">
-        <v>21.672140474281722</v>
+        <v>16.059999999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>6.036877085003491</v>
+        <v>3.96</v>
       </c>
       <c r="F8" s="1">
         <v>100</v>
@@ -2683,19 +2570,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="1">
-        <v>20.63286597057574</v>
+        <v>22.73</v>
       </c>
       <c r="C9" s="1">
-        <v>48.858670646845027</v>
+        <v>55.12</v>
       </c>
       <c r="D9" s="1">
-        <v>22.352620027253657</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>8.1558433553255796</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1">
         <v>100</v>
@@ -2703,19 +2590,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1">
-        <v>21.761470170822413</v>
+        <v>21.74</v>
       </c>
       <c r="C10" s="1">
-        <v>46.568530968684286</v>
+        <v>51.72</v>
       </c>
       <c r="D10" s="1">
-        <v>25.960034392383953</v>
+        <v>24.44</v>
       </c>
       <c r="E10" s="1">
-        <v>5.7099644681093515</v>
+        <v>2.1</v>
       </c>
       <c r="F10" s="1">
         <v>100</v>
@@ -2723,39 +2610,39 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="1">
-        <v>21.324739175038228</v>
+        <v>23.61</v>
       </c>
       <c r="C11" s="1">
-        <v>51.792869171360543</v>
+        <v>55.13</v>
       </c>
       <c r="D11" s="1">
-        <v>22.267870623076476</v>
-      </c>
-      <c r="E11" s="1">
-        <v>4.614521030524747</v>
+        <v>18.21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F11" s="1">
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="1">
-        <v>15.99955387829262</v>
+        <v>19.34</v>
       </c>
       <c r="C12" s="1">
-        <v>42.793117386169754</v>
+        <v>45.95</v>
       </c>
       <c r="D12" s="1">
-        <v>27.522545361639388</v>
+        <v>20.65</v>
       </c>
       <c r="E12" s="1">
-        <v>13.68478337389824</v>
+        <v>14.05</v>
       </c>
       <c r="F12" s="1">
         <v>100</v>
@@ -2763,39 +2650,39 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>17.495017304875702</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>47.392460228143833</v>
+        <v>51.89</v>
       </c>
       <c r="D13" s="1">
-        <v>25.202814448021766</v>
+        <v>21.62</v>
       </c>
       <c r="E13" s="1">
-        <v>9.909708018958705</v>
+        <v>7.59</v>
       </c>
       <c r="F13" s="1">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1">
-        <v>20.784336503543127</v>
+        <v>24.16</v>
       </c>
       <c r="C14" s="1">
-        <v>45.599604018405067</v>
+        <v>50.76</v>
       </c>
       <c r="D14" s="1">
-        <v>24.779709983887994</v>
+        <v>20.76</v>
       </c>
       <c r="E14" s="1">
-        <v>8.8363494941638177</v>
+        <v>4.32</v>
       </c>
       <c r="F14" s="1">
         <v>100</v>
@@ -2803,39 +2690,39 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="1">
-        <v>19.520806051394789</v>
+        <v>21.44</v>
       </c>
       <c r="C15" s="1">
-        <v>42.64670901574695</v>
+        <v>48.03</v>
       </c>
       <c r="D15" s="1">
-        <v>26.41726280049777</v>
+        <v>20.18</v>
       </c>
       <c r="E15" s="1">
-        <v>11.415222132360489</v>
+        <v>10.35</v>
       </c>
       <c r="F15" s="1">
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1">
-        <v>19.47047206324411</v>
+        <v>22.33</v>
       </c>
       <c r="C16" s="1">
-        <v>47.758993272851662</v>
+        <v>52.39</v>
       </c>
       <c r="D16" s="1">
-        <v>23.213293821915656</v>
+        <v>19.3</v>
       </c>
       <c r="E16" s="1">
-        <v>9.5572408419885697</v>
+        <v>5.98</v>
       </c>
       <c r="F16" s="1">
         <v>100</v>
@@ -2843,19 +2730,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
-        <v>18.892425338669067</v>
+        <v>19.55</v>
       </c>
       <c r="C17" s="1">
-        <v>42.587239563862575</v>
+        <v>42.51</v>
       </c>
       <c r="D17" s="1">
-        <v>27.144137232144605</v>
+        <v>26.63</v>
       </c>
       <c r="E17" s="1">
-        <v>11.376197865323762</v>
+        <v>11.3</v>
       </c>
       <c r="F17" s="1">
         <v>100</v>
@@ -2863,19 +2750,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
-        <v>23.319121023286325</v>
+        <v>22.85</v>
       </c>
       <c r="C18" s="1">
-        <v>43.938996392259753</v>
+        <v>51.35</v>
       </c>
       <c r="D18" s="1">
-        <v>22.402895562948039</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>10.338987021505879</v>
+        <v>7.49</v>
       </c>
       <c r="F18" s="1">
         <v>100</v>
@@ -2883,19 +2770,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
-        <v>20.150527102611026</v>
+        <v>23.52</v>
       </c>
       <c r="C19" s="1">
-        <v>57.566564425084408</v>
+        <v>60.02</v>
       </c>
       <c r="D19" s="1">
-        <v>16.640977395159421</v>
+        <v>13.12</v>
       </c>
       <c r="E19" s="1">
-        <v>5.6419310771451405</v>
+        <v>3.34</v>
       </c>
       <c r="F19" s="1">
         <v>100</v>
@@ -2903,19 +2790,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
-        <v>20.168806087342606</v>
+        <v>22.1</v>
       </c>
       <c r="C20" s="1">
-        <v>54.736872035012283</v>
+        <v>57.35</v>
       </c>
       <c r="D20" s="1">
-        <v>19.631198724440139</v>
+        <v>17.62</v>
       </c>
       <c r="E20" s="1">
-        <v>5.4631231532049753</v>
+        <v>2.94</v>
       </c>
       <c r="F20" s="1">
         <v>100</v>
@@ -2923,39 +2810,39 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="1">
-        <v>21.660569877258975</v>
+        <v>24</v>
       </c>
       <c r="C21" s="1">
-        <v>50.071320932693745</v>
+        <v>56.78</v>
       </c>
       <c r="D21" s="1">
-        <v>22.697024076566471</v>
+        <v>15.91</v>
       </c>
       <c r="E21" s="1">
-        <v>5.571085113480807</v>
+        <v>3.31</v>
       </c>
       <c r="F21" s="1">
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1">
-        <v>19.092284902966359</v>
+        <v>21.99</v>
       </c>
       <c r="C22" s="1">
-        <v>48.195425595063021</v>
+        <v>54.11</v>
       </c>
       <c r="D22" s="1">
-        <v>24.865639555714797</v>
+        <v>21.67</v>
       </c>
       <c r="E22" s="1">
-        <v>7.8466499462558223</v>
+        <v>2.23</v>
       </c>
       <c r="F22" s="1">
         <v>100</v>
@@ -2963,19 +2850,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1">
-        <v>20.795514948500134</v>
+        <v>19.54</v>
       </c>
       <c r="C23" s="1">
-        <v>46.170690041353673</v>
+        <v>53.37</v>
       </c>
       <c r="D23" s="1">
-        <v>24.619643161600258</v>
+        <v>21.67</v>
       </c>
       <c r="E23" s="1">
-        <v>8.4141518485459343</v>
+        <v>5.41</v>
       </c>
       <c r="F23" s="1">
         <v>100</v>
@@ -2983,19 +2870,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1">
-        <v>18.576337189325393</v>
+        <v>23.32</v>
       </c>
       <c r="C24" s="1">
-        <v>49.552456763257361</v>
+        <v>51.78</v>
       </c>
       <c r="D24" s="1">
-        <v>23.925380826938493</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>7.9458252204787545</v>
+        <v>5.8</v>
       </c>
       <c r="F24" s="1">
         <v>100</v>
@@ -3003,19 +2890,19 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="1">
-        <v>22.676394616395523</v>
+        <v>25.97</v>
       </c>
       <c r="C25" s="1">
-        <v>52.539991843023515</v>
+        <v>60.93</v>
       </c>
       <c r="D25" s="1">
-        <v>20.357698524191477</v>
+        <v>9.65</v>
       </c>
       <c r="E25" s="1">
-        <v>4.4259150163894807</v>
+        <v>3.45</v>
       </c>
       <c r="F25" s="1">
         <v>100</v>
@@ -3023,39 +2910,39 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="1">
-        <v>18.214715462563415</v>
+        <v>21.71</v>
       </c>
       <c r="C26" s="1">
-        <v>47.073083653257051</v>
+        <v>47.57</v>
       </c>
       <c r="D26" s="1">
-        <v>25.955914438219828</v>
+        <v>25.52</v>
       </c>
       <c r="E26" s="1">
-        <v>8.7562864459597041</v>
+        <v>5.2</v>
       </c>
       <c r="F26" s="1">
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="1">
-        <v>19.704217171836412</v>
+        <v>23.88</v>
       </c>
       <c r="C27" s="1">
-        <v>52.314462854795373</v>
+        <v>55.9</v>
       </c>
       <c r="D27" s="1">
-        <v>21.074526506655587</v>
+        <v>15.89</v>
       </c>
       <c r="E27" s="1">
-        <v>6.9067934667126272</v>
+        <v>4.33</v>
       </c>
       <c r="F27" s="1">
         <v>100</v>
@@ -3063,19 +2950,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="1">
-        <v>20.1034949742081</v>
+        <v>23.44</v>
       </c>
       <c r="C28" s="1">
-        <v>48.857943217445296</v>
+        <v>52.94</v>
       </c>
       <c r="D28" s="1">
-        <v>22.028257052532101</v>
+        <v>18.98</v>
       </c>
       <c r="E28" s="1">
-        <v>9.0103047558144986</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="F28" s="1">
         <v>100</v>
@@ -3083,19 +2970,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="1">
-        <v>22.730103159832009</v>
+        <v>26.91</v>
       </c>
       <c r="C29" s="1">
-        <v>51.030560494835086</v>
+        <v>55.5</v>
       </c>
       <c r="D29" s="1">
-        <v>20.894882137643307</v>
+        <v>15.59</v>
       </c>
       <c r="E29" s="1">
-        <v>5.3444542076895933</v>
+        <v>2</v>
       </c>
       <c r="F29" s="1">
         <v>100</v>
@@ -3103,39 +2990,39 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B30" s="1">
-        <v>22.206244363742719</v>
+        <v>30.76</v>
       </c>
       <c r="C30" s="1">
-        <v>51.424602110702189</v>
+        <v>51.14</v>
       </c>
       <c r="D30" s="1">
-        <v>21.751687830558872</v>
+        <v>16.8</v>
       </c>
       <c r="E30" s="1">
-        <v>4.6174656949962225</v>
+        <v>1.31</v>
       </c>
       <c r="F30" s="1">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1">
-        <v>21.874531323058463</v>
+        <v>22.52</v>
       </c>
       <c r="C31" s="1">
-        <v>52.183924270628403</v>
+        <v>63.21</v>
       </c>
       <c r="D31" s="1">
-        <v>20.253019382272765</v>
-      </c>
-      <c r="E31" s="1">
-        <v>5.68852502404037</v>
+        <v>13.43</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F31" s="1">
         <v>100</v>
@@ -3143,59 +3030,59 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1">
-        <v>19.863923537988011</v>
+        <v>27.9</v>
       </c>
       <c r="C32" s="1">
-        <v>57.000377990172254</v>
+        <v>53.16</v>
       </c>
       <c r="D32" s="1">
-        <v>17.196932879745127</v>
-      </c>
-      <c r="E32" s="1">
-        <v>5.9387655920946054</v>
+        <v>15.56</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="F32" s="1">
-        <v>100.00000000000001</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B33" s="1">
-        <v>18.612764015893234</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="C33" s="1">
-        <v>58.250793711146173</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="D33" s="1">
-        <v>19.294309994106577</v>
+        <v>12.32</v>
       </c>
       <c r="E33" s="1">
-        <v>3.8421322788540144</v>
+        <v>1.65</v>
       </c>
       <c r="F33" s="1">
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="1">
-        <v>15.467777413768896</v>
+        <v>20.28</v>
       </c>
       <c r="C34" s="1">
-        <v>57.266813310244771</v>
+        <v>62.68</v>
       </c>
       <c r="D34" s="1">
-        <v>22.464548134974493</v>
+        <v>14.76</v>
       </c>
       <c r="E34" s="1">
-        <v>4.8008611410118407</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="F34" s="1">
         <v>100</v>
@@ -3203,41 +3090,1295 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="1">
-        <v>13.968590617583192</v>
+        <v>17.760000000000002</v>
       </c>
       <c r="C35" s="1">
-        <v>54.992172903095494</v>
+        <v>60.97</v>
       </c>
       <c r="D35" s="1">
-        <v>24.962884411452809</v>
+        <v>17.78</v>
       </c>
       <c r="E35" s="1">
-        <v>6.0763520678685046</v>
+        <v>3.49</v>
       </c>
       <c r="F35" s="1">
-        <v>99.999999999999986</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1">
+        <v>21.79</v>
+      </c>
+      <c r="C36" s="1">
+        <v>52.98</v>
+      </c>
+      <c r="D36" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="E36" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="F36" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB9227F-1016-4235-9EC1-36E8ABFD72BB}">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection sqref="A1:F36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="C2">
+        <v>72.34</v>
+      </c>
+      <c r="D2">
+        <v>14.58</v>
+      </c>
+      <c r="E2">
+        <v>3.3</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>10.1</v>
+      </c>
+      <c r="C3">
+        <v>71.13</v>
+      </c>
+      <c r="D3">
+        <v>13.95</v>
+      </c>
+      <c r="E3">
+        <v>4.82</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>9.51</v>
+      </c>
+      <c r="C4">
+        <v>71.03</v>
+      </c>
+      <c r="D4">
+        <v>15.57</v>
+      </c>
+      <c r="E4">
+        <v>3.88</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="C5">
+        <v>71.17</v>
+      </c>
+      <c r="D5">
+        <v>16.559999999999999</v>
+      </c>
+      <c r="E5">
+        <v>2.81</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>12.74</v>
+      </c>
+      <c r="C6">
+        <v>67</v>
+      </c>
+      <c r="D6">
+        <v>16.93</v>
+      </c>
+      <c r="E6">
+        <v>3.33</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>15.22</v>
+      </c>
+      <c r="C7">
+        <v>65.89</v>
+      </c>
+      <c r="D7">
+        <v>14.14</v>
+      </c>
+      <c r="E7">
+        <v>4.75</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="C8">
+        <v>72.39</v>
+      </c>
+      <c r="D8">
+        <v>13.86</v>
+      </c>
+      <c r="E8">
+        <v>3.77</v>
+      </c>
+      <c r="F8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>12.09</v>
+      </c>
+      <c r="C9">
+        <v>66.84</v>
+      </c>
+      <c r="D9">
+        <v>16.13</v>
+      </c>
+      <c r="E9">
+        <v>4.93</v>
+      </c>
+      <c r="F9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>7.59</v>
+      </c>
+      <c r="C10">
+        <v>69.77</v>
+      </c>
+      <c r="D10">
+        <v>20.54</v>
+      </c>
+      <c r="E10">
+        <v>2.1</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>10.5</v>
+      </c>
+      <c r="C11">
+        <v>71.94</v>
+      </c>
+      <c r="D11">
+        <v>14.51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>7.12</v>
+      </c>
+      <c r="C12">
+        <v>60.87</v>
+      </c>
+      <c r="D12">
+        <v>18.5</v>
+      </c>
+      <c r="E12">
+        <v>13.51</v>
+      </c>
+      <c r="F12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="C13">
+        <v>64.22</v>
+      </c>
+      <c r="D13">
+        <v>19.25</v>
+      </c>
+      <c r="E13">
+        <v>7.47</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>13.79</v>
+      </c>
+      <c r="C14">
+        <v>64.39</v>
+      </c>
+      <c r="D14">
+        <v>17.71</v>
+      </c>
+      <c r="E14">
+        <v>4.12</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>9.57</v>
+      </c>
+      <c r="C15">
+        <v>62.75</v>
+      </c>
+      <c r="D15">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="E15">
+        <v>10.35</v>
+      </c>
+      <c r="F15">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="C16">
+        <v>68.91</v>
+      </c>
+      <c r="D16">
+        <v>16.739999999999998</v>
+      </c>
+      <c r="E16">
+        <v>5.56</v>
+      </c>
+      <c r="F16">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>8.75</v>
+      </c>
+      <c r="C17">
+        <v>57.52</v>
+      </c>
+      <c r="D17">
+        <v>23.02</v>
+      </c>
+      <c r="E17">
+        <v>10.71</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>11.54</v>
+      </c>
+      <c r="C18">
+        <v>65.349999999999994</v>
+      </c>
+      <c r="D18">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="E18">
+        <v>6.92</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>12.29</v>
+      </c>
+      <c r="C19">
+        <v>72.540000000000006</v>
+      </c>
+      <c r="D19">
+        <v>12.24</v>
+      </c>
+      <c r="E19">
+        <v>2.93</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="C20">
+        <v>72.56</v>
+      </c>
+      <c r="D20">
+        <v>16.11</v>
+      </c>
+      <c r="E20">
+        <v>2.61</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>12.86</v>
+      </c>
+      <c r="C21">
+        <v>69.099999999999994</v>
+      </c>
+      <c r="D21">
+        <v>15.11</v>
+      </c>
+      <c r="E21">
+        <v>2.94</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>8.81</v>
+      </c>
+      <c r="C22">
+        <v>71.59</v>
+      </c>
+      <c r="D22">
+        <v>17.59</v>
+      </c>
+      <c r="E22">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>8.39</v>
+      </c>
+      <c r="C23">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="D23">
+        <v>18.93</v>
+      </c>
+      <c r="E23">
+        <v>4.79</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>9.26</v>
+      </c>
+      <c r="C24">
+        <v>68.03</v>
+      </c>
+      <c r="D24">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E24">
+        <v>5.8</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="C25">
+        <v>79.59</v>
+      </c>
+      <c r="D25">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="E25">
+        <v>3.23</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>9.49</v>
+      </c>
+      <c r="C26">
+        <v>65.81</v>
+      </c>
+      <c r="D26">
+        <v>20.079999999999998</v>
+      </c>
+      <c r="E26">
+        <v>4.62</v>
+      </c>
+      <c r="F26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>11.39</v>
+      </c>
+      <c r="C27">
+        <v>69.5</v>
+      </c>
+      <c r="D27">
+        <v>14.99</v>
+      </c>
+      <c r="E27">
+        <v>4.13</v>
+      </c>
+      <c r="F27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>12.24</v>
+      </c>
+      <c r="C28">
+        <v>66.709999999999994</v>
+      </c>
+      <c r="D28">
+        <v>16.59</v>
+      </c>
+      <c r="E28">
+        <v>4.46</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>10.88</v>
+      </c>
+      <c r="C29">
+        <v>74.08</v>
+      </c>
+      <c r="D29">
+        <v>13.1</v>
+      </c>
+      <c r="E29">
+        <v>1.95</v>
+      </c>
+      <c r="F29">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>10.92</v>
+      </c>
+      <c r="C30">
+        <v>72.709999999999994</v>
+      </c>
+      <c r="D30">
+        <v>15.06</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>9.35</v>
+      </c>
+      <c r="C31">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="D31">
+        <v>10.88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>13.7</v>
+      </c>
+      <c r="C32">
+        <v>68.790000000000006</v>
+      </c>
+      <c r="D32">
+        <v>14.45</v>
+      </c>
+      <c r="E32">
+        <v>3.05</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>8.07</v>
+      </c>
+      <c r="C33">
+        <v>80.08</v>
+      </c>
+      <c r="D33">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E33">
+        <v>1.65</v>
+      </c>
+      <c r="F33">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="C34">
+        <v>76.72</v>
+      </c>
+      <c r="D34">
+        <v>12.83</v>
+      </c>
+      <c r="E34">
+        <v>1.83</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>6.15</v>
+      </c>
+      <c r="C35">
+        <v>75.72</v>
+      </c>
+      <c r="D35">
+        <v>14.7</v>
+      </c>
+      <c r="E35">
+        <v>3.43</v>
+      </c>
+      <c r="F35">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>10.17</v>
+      </c>
+      <c r="C36">
+        <v>67.23</v>
+      </c>
+      <c r="D36">
+        <v>16.91</v>
+      </c>
+      <c r="E36">
+        <v>5.69</v>
+      </c>
+      <c r="F36">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBC8975-B291-4F2E-BAC6-584FB69BAA6F}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="1">
-        <v>19.414054071168934</v>
-      </c>
-      <c r="C36" s="1">
-        <v>48.559272715833842</v>
-      </c>
-      <c r="D36" s="1">
-        <v>23.253639366062725</v>
-      </c>
-      <c r="E36" s="1">
-        <v>8.7730338469344975</v>
-      </c>
-      <c r="F36" s="1">
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>2.14</v>
+      </c>
+      <c r="C2">
+        <v>3.24</v>
+      </c>
+      <c r="D2">
+        <v>2.69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5.98</v>
+      </c>
+      <c r="C3">
+        <v>6.45</v>
+      </c>
+      <c r="D3">
+        <v>6.21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C4">
+        <v>3.01</v>
+      </c>
+      <c r="D4">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5">
+        <v>2.21</v>
+      </c>
+      <c r="C5">
+        <v>2.7</v>
+      </c>
+      <c r="D5">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>1.04</v>
+      </c>
+      <c r="C6">
+        <v>1.42</v>
+      </c>
+      <c r="D6">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>2.34</v>
+      </c>
+      <c r="C7">
+        <v>3.19</v>
+      </c>
+      <c r="D7">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>0.81</v>
+      </c>
+      <c r="C8">
+        <v>0.95</v>
+      </c>
+      <c r="D8">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>1.78</v>
+      </c>
+      <c r="C9">
+        <v>2.61</v>
+      </c>
+      <c r="D9">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>0.5</v>
+      </c>
+      <c r="C10">
+        <v>0.52</v>
+      </c>
+      <c r="D10">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>1.31</v>
+      </c>
+      <c r="C11">
+        <v>1.03</v>
+      </c>
+      <c r="D11">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>7.04</v>
+      </c>
+      <c r="C12">
+        <v>4.63</v>
+      </c>
+      <c r="D12">
+        <v>5.84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>18.91</v>
+      </c>
+      <c r="C13">
+        <v>14.56</v>
+      </c>
+      <c r="D13">
+        <v>16.739999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>9.67</v>
+      </c>
+      <c r="C14">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="D14">
+        <v>9.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="C15">
+        <v>1.74</v>
+      </c>
+      <c r="D15">
+        <v>1.99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>12.98</v>
+      </c>
+      <c r="C16">
+        <v>12.87</v>
+      </c>
+      <c r="D16">
+        <v>12.92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="C17">
+        <v>3.55</v>
+      </c>
+      <c r="D17">
+        <v>4.0599999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>1.84</v>
+      </c>
+      <c r="C18">
+        <v>1.85</v>
+      </c>
+      <c r="D18">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>1.81</v>
+      </c>
+      <c r="C19">
+        <v>1.92</v>
+      </c>
+      <c r="D19">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C20">
+        <v>2.76</v>
+      </c>
+      <c r="D20">
+        <v>2.4900000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>1.93</v>
+      </c>
+      <c r="C21">
+        <v>1.95</v>
+      </c>
+      <c r="D21">
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>0.88</v>
+      </c>
+      <c r="C22">
+        <v>0.84</v>
+      </c>
+      <c r="D22">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>1.6</v>
+      </c>
+      <c r="C23">
+        <v>1.4</v>
+      </c>
+      <c r="D23">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="C24">
+        <v>1.89</v>
+      </c>
+      <c r="D24">
+        <v>2.0499999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>0.34</v>
+      </c>
+      <c r="C25">
+        <v>0.34</v>
+      </c>
+      <c r="D25">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>0.97</v>
+      </c>
+      <c r="C26">
+        <v>1.29</v>
+      </c>
+      <c r="D26">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>0.94</v>
+      </c>
+      <c r="C27">
+        <v>1.33</v>
+      </c>
+      <c r="D27">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C28">
+        <v>5.62</v>
+      </c>
+      <c r="D28">
+        <v>4.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>1.39</v>
+      </c>
+      <c r="C29">
+        <v>1.85</v>
+      </c>
+      <c r="D29">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>0.38</v>
+      </c>
+      <c r="C30">
+        <v>0.48</v>
+      </c>
+      <c r="D30">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>0.49</v>
+      </c>
+      <c r="C31">
+        <v>0.62</v>
+      </c>
+      <c r="D31">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>0.8</v>
+      </c>
+      <c r="C32">
+        <v>1.29</v>
+      </c>
+      <c r="D32">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C33">
+        <v>0.76</v>
+      </c>
+      <c r="D33">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>0.63</v>
+      </c>
+      <c r="C34">
+        <v>0.54</v>
+      </c>
+      <c r="D34">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="C35">
+        <v>0.99</v>
+      </c>
+      <c r="D35">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36">
+        <v>100</v>
+      </c>
+      <c r="C36">
+        <v>100</v>
+      </c>
+      <c r="D36">
         <v>100</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\Python\Project\STEM ITA\deploy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FDBA35-1384-4F92-B537-E40F508228EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC02E39-45F1-4F7B-A89C-51F8D990CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{BA75D349-407D-4F0B-8BC4-71B4BC33D962}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{BA75D349-407D-4F0B-8BC4-71B4BC33D962}"/>
   </bookViews>
   <sheets>
     <sheet name="disability" sheetId="1" r:id="rId1"/>
@@ -1104,7 +1104,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1661,12 +1661,14 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F36"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2400,12 +2402,14 @@
   <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F36"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3137,8 +3141,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB9227F-1016-4235-9EC1-36E8ABFD72BB}">
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="A1:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3872,8 +3876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CBC8975-B291-4F2E-BAC6-584FB69BAA6F}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
